--- a/ToDoApp-Doc/Document/Diagram/UseCase/UserNotificationManagement/UserNotificationManagement Requirements.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/UseCase/UserNotificationManagement/UserNotificationManagement Requirements.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Chức năng</t>
   </si>
@@ -25,43 +25,86 @@
     <t>Mức System</t>
   </si>
   <si>
-    <t>View Notification</t>
+    <t>UserNotificationManagement</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Người dùng nhấn vào biểu tượng chuông thông báo trên góc phải phần mềm, sau đó người dùng sẽ nhận được danh sách các thông báo tồn tại trong tài khoản của mình.</t>
+    <t xml:space="preserve"> * - Người dùng nhấn vào biểu tượng chuông thông báo trên góc phải phần mềm, sau đó người dùng sẽ nhận được danh sách các thông báo tồn tại trong tài khoản của mình.</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Hệ thống có quyền truy xuất CSDL chứa nội dung toàn bộ các thông báo đang tồn tại, sau đó hiển thị chúng lên.</t>
+    <r>
+      <t xml:space="preserve"> *View Notification:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Hệ thống có quyền truy xuất CSDL chứa nội dung toàn bộ các thông báo đang tồn tại, sau đó hiển thị chúng lên.</t>
+    </r>
   </si>
   <si>
-    <t>Delete Notification</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Khi đang xem danh sách thông báo, người dùng có thể bấm vào biểu tượng Xóa bên cạnh từng thông báo để xóa thông báo tương ứng.
+    <t xml:space="preserve"> * - Khi đang xem danh sách thông báo, người dùng có thể bấm vào biểu tượng Xóa bên cạnh từng thông báo để xóa thông báo tương ứng.
 - Khi người dùng xác nhận xóa thì danh sách thông báo sẽ cập nhập lại. </t>
   </si>
   <si>
-    <t xml:space="preserve"> - Hệ thống có quyền truy cập CSDL chứa nội dung toàn bộ các thông báo đang tồn tại, sau đó dựa theo lựa chọn của người dùng để xóa thông báo đang được trỏ vào.</t>
+    <r>
+      <t>*Delete Notification:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+- Hệ thống có quyền truy cập CSDL chứa nội dung toàn bộ các thông báo đang tồn tại, sau đó dựa theo lựa chọn của người dùng để xóa thông báo đang được trỏ vào.</t>
+    </r>
   </si>
   <si>
-    <t>Seen Notification</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Khi đang xem danh sách thông báo, người dùng có thể bấm trực tiếp vào từng thông báo để đánh dấu đã xem cho chúng.
+    <t xml:space="preserve"> * - Khi đang xem danh sách thông báo, người dùng có thể bấm trực tiếp vào từng thông báo để đánh dấu đã xem cho chúng.
 - Khi người dùng đã đánh dấu một thông báo nào đó thì chế độ hiển thị của thông báo đó sẽ cập nhập lại. </t>
   </si>
   <si>
-    <t xml:space="preserve"> - Hệ thống có quyền truy cập CSDL chứa nội dung toàn bộ các thông báo đang tồn tại, sau đó thay đổi dữ liệu "Seen" của thông báo đang được trỏ vào.</t>
+    <r>
+      <t>*Seen Notification:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+- Hệ thống có quyền truy cập CSDL chứa nội dung toàn bộ các thông báo đang tồn tại, sau đó thay đổi dữ liệu "Seen" của thông báo đang được trỏ vào.</t>
+    </r>
   </si>
   <si>
-    <t>Setting Notification Options</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Người dùng có thể vào phần Cài Đặt, tại mục Cài Đặt Thông Báo để thay đổi các thiết lập liên quan đến thông báo mà mình muốn.
+    <t xml:space="preserve"> * - Người dùng có thể vào phần Cài Đặt, tại mục Cài Đặt Thông Báo để thay đổi các thiết lập liên quan đến thông báo mà mình muốn.
 - Sau đó hệ thống cập nhập lại hiển thị thông báo hiện hành theo thay đổi đó.</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Hệ thống có quyền truy cập CSDL chứa nội dung các thiết lập Cài Đặt Thông Báo hiện hành, sau đó cập nhập nội dung dữ liệu đã được người dùng thay đổi.</t>
+    <r>
+      <t xml:space="preserve">*Setting Notification Options: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Hệ thống có quyền truy cập CSDL chứa nội dung các thiết lập Cài Đặt Thông Báo hiện hành, sau đó cập nhập nội dung dữ liệu đã được người dùng thay đổi.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -105,7 +148,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,9 +177,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,23 +217,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,7 +277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,74 +285,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,37 +300,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,49 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,7 +456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,31 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,50 +484,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -467,6 +510,19 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -477,6 +533,78 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,48 +626,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,19 +653,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,148 +681,154 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1065,8 +1151,8 @@
   <sheetPr/>
   <dimension ref="C2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1085,51 +1171,48 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="87" customHeight="1" spans="3:5">
+    <row r="3" ht="103" customHeight="1" spans="3:5">
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="144" customHeight="1" spans="3:5">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" ht="136" customHeight="1" spans="3:5">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+    </row>
+    <row r="6" ht="136" customHeight="1" spans="3:5">
+      <c r="C6" s="6"/>
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="136" customHeight="1" spans="3:5">
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:C6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
